--- a/doc/Actions.xlsx
+++ b/doc/Actions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My\dev\AHK\DigiHotkey\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF9BF9A-552F-4828-8597-936A930C9100}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97431DDE-5F4B-48D0-9007-6B7A190C7193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{307D0D2A-8B38-4A24-A2DF-8295B7845021}"/>
+    <workbookView xWindow="-3732" yWindow="-17388" windowWidth="30936" windowHeight="16896" xr2:uid="{307D0D2A-8B38-4A24-A2DF-8295B7845021}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -57,18 +57,12 @@
     <t>Decrease  active appliction sound volume</t>
   </si>
   <si>
-    <t>LCtrl + LAlt + Up</t>
-  </si>
-  <si>
     <t>LAlt + Up</t>
   </si>
   <si>
     <t>LAlt + Down</t>
   </si>
   <si>
-    <t>LCtrl + LAlt + Down</t>
-  </si>
-  <si>
     <t>Decrease master sound volume</t>
   </si>
   <si>
@@ -355,6 +349,12 @@
   </si>
   <si>
     <t>Shift + LAlt + C</t>
+  </si>
+  <si>
+    <t>LWin + LAlt + Up</t>
+  </si>
+  <si>
+    <t>LWin+ LAlt + Down</t>
   </si>
 </sst>
 </file>
@@ -572,15 +572,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -619,6 +610,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -936,606 +936,606 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEF8C21-E913-473A-B454-0BC5B3D26BE4}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="11" customWidth="1"/>
     <col min="2" max="2" width="36.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="52.109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="21"/>
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="21"/>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="8" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="22"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="18"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="17"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="17" t="s">
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="18"/>
-    </row>
-    <row r="14" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="6" t="s">
+    <row r="15" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="18"/>
+    </row>
+    <row r="17" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="7" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="21"/>
-    </row>
-    <row r="17" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="8" t="s">
+      <c r="C18" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="7" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C20" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="21"/>
-    </row>
-    <row r="20" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="8" t="s">
+    <row r="21" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C21" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="7" t="s">
+    <row r="22" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A22" s="21"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="18"/>
+    </row>
+    <row r="23" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A23" s="21"/>
+      <c r="B23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C23" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="21"/>
-    </row>
-    <row r="23" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="8" t="s">
+    <row r="24" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C24" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="7" t="s">
+    <row r="25" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="18"/>
+    </row>
+    <row r="26" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C26" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="21"/>
-    </row>
-    <row r="26" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="8" t="s">
+    <row r="27" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A27" s="21"/>
+      <c r="B27" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="21" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="18"/>
+    </row>
+    <row r="29" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A29" s="21"/>
+      <c r="B29" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="20" t="s">
+      <c r="C29" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="21"/>
-    </row>
-    <row r="29" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="8" t="s">
+    <row r="30" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C30" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="7" t="s">
+    <row r="31" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A31" s="21"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="18"/>
+    </row>
+    <row r="32" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A32" s="21"/>
+      <c r="B32" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C32" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="21"/>
-    </row>
-    <row r="32" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="8" t="s">
+    <row r="33" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A33" s="21"/>
+      <c r="B33" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C33" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="7" t="s">
+    <row r="34" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A34" s="21"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="18"/>
+    </row>
+    <row r="35" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A35" s="21"/>
+      <c r="B35" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C35" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="21"/>
-    </row>
-    <row r="35" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="8" t="s">
+    <row r="36" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A36" s="21"/>
+      <c r="B36" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C36" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="7" t="s">
+    <row r="37" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A37" s="21"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="18"/>
+    </row>
+    <row r="38" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A38" s="21"/>
+      <c r="B38" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C38" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="21"/>
-    </row>
-    <row r="38" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="8" t="s">
+    <row r="39" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A39" s="21"/>
+      <c r="B39" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C39" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="7" t="s">
+    <row r="40" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A40" s="21"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="18"/>
+    </row>
+    <row r="41" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A41" s="21"/>
+      <c r="B41" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C41" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A42" s="21"/>
+      <c r="B42" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A43" s="21"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="18"/>
+    </row>
+    <row r="44" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A44" s="21"/>
+      <c r="B44" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="21"/>
-    </row>
-    <row r="41" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="21" t="s">
+    <row r="45" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A45" s="21"/>
+      <c r="B45" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="21"/>
-    </row>
-    <row r="44" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="8" t="s">
+      <c r="C45" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="7" t="s">
+    </row>
+    <row r="46" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A46" s="21"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="18"/>
+    </row>
+    <row r="47" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A47" s="21"/>
+      <c r="B47" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="21"/>
-    </row>
-    <row r="47" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="8" t="s">
+    </row>
+    <row r="48" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A48" s="21"/>
+      <c r="B48" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="7" t="s">
+    </row>
+    <row r="49" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A49" s="21"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="18"/>
+    </row>
+    <row r="50" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A50" s="21"/>
+      <c r="B50" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="21"/>
-    </row>
-    <row r="50" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
-      <c r="B50" s="8" t="s">
+    </row>
+    <row r="51" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A51" s="21"/>
+      <c r="B51" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
-      <c r="B51" s="7" t="s">
+    </row>
+    <row r="52" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A52" s="21"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="18"/>
+    </row>
+    <row r="53" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A53" s="21"/>
+      <c r="B53" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C51" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="21"/>
-    </row>
-    <row r="53" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
-      <c r="B53" s="8" t="s">
+    </row>
+    <row r="54" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A54" s="21"/>
+      <c r="B54" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A54" s="4"/>
-      <c r="B54" s="7" t="s">
+    </row>
+    <row r="55" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A55" s="21"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="18"/>
+    </row>
+    <row r="56" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A56" s="21"/>
+      <c r="B56" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A55" s="4"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="21"/>
-    </row>
-    <row r="56" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
-      <c r="B56" s="8" t="s">
+    </row>
+    <row r="57" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A57" s="21"/>
+      <c r="B57" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C56" s="21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
-      <c r="B57" s="7" t="s">
+    </row>
+    <row r="58" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A58" s="21"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="18"/>
+    </row>
+    <row r="59" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A59" s="21"/>
+      <c r="B59" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C59" s="18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A58" s="4"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="21"/>
-    </row>
-    <row r="59" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A59" s="4"/>
-      <c r="B59" s="8" t="s">
+    <row r="60" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A60" s="21"/>
+      <c r="B60" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A60" s="4"/>
-      <c r="B60" s="7" t="s">
+    </row>
+    <row r="61" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A61" s="21"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="18"/>
+    </row>
+    <row r="62" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A62" s="21"/>
+      <c r="B62" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A63" s="21"/>
+      <c r="B63" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A61" s="4"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="21"/>
-    </row>
-    <row r="62" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A62" s="4"/>
-      <c r="B62" s="8" t="s">
+    </row>
+    <row r="64" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A64" s="21"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="18"/>
+    </row>
+    <row r="65" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A65" s="21"/>
+      <c r="B65" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C62" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A63" s="4"/>
-      <c r="B63" s="7" t="s">
+      <c r="C65" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A64" s="4"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="21"/>
-    </row>
-    <row r="65" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A65" s="4"/>
-      <c r="B65" s="8" t="s">
+    </row>
+    <row r="66" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A66" s="21"/>
+      <c r="B66" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C66" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A66" s="4"/>
-      <c r="B66" s="7" t="s">
+    <row r="67" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A67" s="21"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="18"/>
+    </row>
+    <row r="68" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A68" s="21"/>
+      <c r="B68" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C68" s="18" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A67" s="4"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="21"/>
-    </row>
-    <row r="68" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A68" s="4"/>
-      <c r="B68" s="8" t="s">
+    <row r="69" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A69" s="21"/>
+      <c r="B69" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C69" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A69" s="4"/>
-      <c r="B69" s="7" t="s">
+    <row r="70" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A70" s="21"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="18"/>
+    </row>
+    <row r="71" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A71" s="21"/>
+      <c r="B71" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C71" s="18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A70" s="4"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="21"/>
-    </row>
-    <row r="71" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A71" s="4"/>
-      <c r="B71" s="8" t="s">
+    <row r="72" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A72" s="21"/>
+      <c r="B72" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C72" s="17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A72" s="4"/>
-      <c r="B72" s="7" t="s">
+    <row r="73" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A73" s="21"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="18"/>
+    </row>
+    <row r="74" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A74" s="21"/>
+      <c r="B74" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C74" s="18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A73" s="4"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="21"/>
-    </row>
-    <row r="74" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A74" s="4"/>
-      <c r="B74" s="8" t="s">
+    <row r="75" spans="1:3" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="22"/>
+      <c r="B75" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C75" s="19" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="5"/>
-      <c r="B75" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C75" s="22" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
